--- a/pred_ohlcv/54_21/2019-10-31 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 XVG ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-1624292.0692</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1624292.0692</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1735292.0692</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1735292.0692</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1563268.8352</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1611988.8352</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1611988.8352</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1130294.846</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>833330.8002580192</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-569252.4816419808</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2042537.591741981</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1984801.315441981</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1101974.878941981</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-698019.7442419806</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2357574.95614198</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2094188.61924198</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1189719.63004198</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-758579.2244419805</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2012113.903241981</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2012113.903241981</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2012113.903241981</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2962157.035041981</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2778544.298641981</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2845759.647841981</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2845759.647841981</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2983440.908641981</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2983440.908641981</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3476583.154741981</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3476483.154741981</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3584241.775341981</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-3763581.391341981</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-12645293.92405074</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-13148668.05267547</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-13290692.93197547</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-13290692.93197547</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-14538562.35427547</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 XVG ohlcv.xlsx
@@ -1614,7 +1614,7 @@
         <v>833330.8002580192</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-569252.4816419808</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2042537.591741981</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1984801.315441981</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1101974.878941981</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-698019.7442419806</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2357574.95614198</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2094188.61924198</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1189719.63004198</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-758579.2244419805</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2012113.903241981</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2012113.903241981</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2012113.903241981</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2962157.035041981</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2778544.298641981</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2845759.647841981</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2845759.647841981</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2983440.908641981</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2983440.908641981</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3476583.154741981</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3476483.154741981</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3584241.775341981</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-3763581.391341981</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-4665919.559041981</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3871786.034741981</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3891948.602441981</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-8548291.269341983</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-12645293.92405074</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-13004110.46575074</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-12828280.58305074</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-12874130.47267547</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-12865800.07627547</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-12633478.17437547</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-12633478.17437547</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-12633478.17437547</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-12714388.64787547</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-12712470.06257547</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-12852076.06257547</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-12377578.71997547</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-12860915.09407547</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-12860915.09407547</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-12948453.66447547</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-13148668.05267547</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-13148668.05267547</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-13290692.93197547</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-13290692.93197547</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-14538562.35427547</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
